--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Mif-Cxcr4.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.11008933333334</v>
+        <v>14.04383033333333</v>
       </c>
       <c r="H2">
-        <v>72.33026800000002</v>
+        <v>42.131491</v>
       </c>
       <c r="I2">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="J2">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N2">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O2">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P2">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q2">
-        <v>570.4716847799343</v>
+        <v>360.9138469321344</v>
       </c>
       <c r="R2">
-        <v>5134.245163019409</v>
+        <v>3248.224622389209</v>
       </c>
       <c r="S2">
-        <v>0.01899895131795758</v>
+        <v>0.01392427126346301</v>
       </c>
       <c r="T2">
-        <v>0.01899895131795758</v>
+        <v>0.01392427126346301</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.11008933333334</v>
+        <v>14.04383033333333</v>
       </c>
       <c r="H3">
-        <v>72.33026800000002</v>
+        <v>42.131491</v>
       </c>
       <c r="I3">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="J3">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>0.486704</v>
       </c>
       <c r="O3">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P3">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q3">
-        <v>3.91149230629689</v>
+        <v>2.278396132851555</v>
       </c>
       <c r="R3">
-        <v>35.20343075667201</v>
+        <v>20.505565195664</v>
       </c>
       <c r="S3">
-        <v>0.0001302680814676503</v>
+        <v>8.79018803770521E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001302680814676503</v>
+        <v>8.79018803770521E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.11008933333334</v>
+        <v>14.04383033333333</v>
       </c>
       <c r="H4">
-        <v>72.33026800000002</v>
+        <v>42.131491</v>
       </c>
       <c r="I4">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="J4">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N4">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O4">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P4">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q4">
-        <v>289.1036311409991</v>
+        <v>659.0377658941497</v>
       </c>
       <c r="R4">
-        <v>2601.932680268992</v>
+        <v>5931.339893047348</v>
       </c>
       <c r="S4">
-        <v>0.009628288240127928</v>
+        <v>0.02542606969275504</v>
       </c>
       <c r="T4">
-        <v>0.009628288240127928</v>
+        <v>0.02542606969275504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.11008933333334</v>
+        <v>14.04383033333333</v>
       </c>
       <c r="H5">
-        <v>72.33026800000002</v>
+        <v>42.131491</v>
       </c>
       <c r="I5">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="J5">
-        <v>0.2144059681009566</v>
+        <v>0.158930310642385</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N5">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O5">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P5">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q5">
-        <v>5574.370303065918</v>
+        <v>3097.206385430429</v>
       </c>
       <c r="R5">
-        <v>50169.33272759327</v>
+        <v>27874.85746887386</v>
       </c>
       <c r="S5">
-        <v>0.1856484604614034</v>
+        <v>0.1194920678057899</v>
       </c>
       <c r="T5">
-        <v>0.1856484604614034</v>
+        <v>0.1194920678057899</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>82.947355</v>
       </c>
       <c r="I6">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755355</v>
       </c>
       <c r="J6">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755354</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N6">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O6">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P6">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q6">
-        <v>654.209069913709</v>
+        <v>710.5575491238943</v>
       </c>
       <c r="R6">
-        <v>5887.881629223381</v>
+        <v>6395.01794211505</v>
       </c>
       <c r="S6">
-        <v>0.02178773566272899</v>
+        <v>0.02741373362757955</v>
       </c>
       <c r="T6">
-        <v>0.02178773566272899</v>
+        <v>0.02741373362757955</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>82.947355</v>
       </c>
       <c r="I7">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755355</v>
       </c>
       <c r="J7">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755354</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -871,10 +871,10 @@
         <v>0.486704</v>
       </c>
       <c r="O7">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P7">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q7">
         <v>4.485645496435556</v>
@@ -883,10 +883,10 @@
         <v>40.37080946792</v>
       </c>
       <c r="S7">
-        <v>0.0001493896413969614</v>
+        <v>0.0001730588760032935</v>
       </c>
       <c r="T7">
-        <v>0.0001493896413969614</v>
+        <v>0.0001730588760032935</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>82.947355</v>
       </c>
       <c r="I8">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755355</v>
       </c>
       <c r="J8">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755354</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N8">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O8">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P8">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q8">
-        <v>331.5400618181244</v>
+        <v>1297.495963910438</v>
       </c>
       <c r="R8">
-        <v>2983.86055636312</v>
+        <v>11677.46367519394</v>
       </c>
       <c r="S8">
-        <v>0.01104158832504556</v>
+        <v>0.05005816739454327</v>
       </c>
       <c r="T8">
-        <v>0.01104158832504556</v>
+        <v>0.05005816739454327</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>82.947355</v>
       </c>
       <c r="I9">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755355</v>
       </c>
       <c r="J9">
-        <v>0.2458778107968398</v>
+        <v>0.3128977537755354</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N9">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O9">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P9">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q9">
-        <v>6392.611077147761</v>
+        <v>6097.697267836182</v>
       </c>
       <c r="R9">
-        <v>57533.49969432985</v>
+        <v>54879.27541052563</v>
       </c>
       <c r="S9">
-        <v>0.2128990971676683</v>
+        <v>0.2352527938774093</v>
       </c>
       <c r="T9">
-        <v>0.2128990971676683</v>
+        <v>0.2352527938774093</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>36.47324633333333</v>
+        <v>25.89747433333334</v>
       </c>
       <c r="H10">
-        <v>109.419739</v>
+        <v>77.69242300000001</v>
       </c>
       <c r="I10">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675039</v>
       </c>
       <c r="J10">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675038</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N10">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O10">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P10">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q10">
-        <v>862.9978096515648</v>
+        <v>665.541868964681</v>
       </c>
       <c r="R10">
-        <v>7766.980286864084</v>
+        <v>5989.87682068213</v>
       </c>
       <c r="S10">
-        <v>0.02874122206328095</v>
+        <v>0.02567700186465542</v>
       </c>
       <c r="T10">
-        <v>0.02874122206328095</v>
+        <v>0.02567700186465542</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>36.47324633333333</v>
+        <v>25.89747433333334</v>
       </c>
       <c r="H11">
-        <v>109.419739</v>
+        <v>77.69242300000001</v>
       </c>
       <c r="I11">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675039</v>
       </c>
       <c r="J11">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675038</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1119,22 +1119,22 @@
         <v>0.486704</v>
       </c>
       <c r="O11">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P11">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q11">
-        <v>5.917224961139555</v>
+        <v>4.201468115976889</v>
       </c>
       <c r="R11">
-        <v>53.25502465025599</v>
+        <v>37.813213043792</v>
       </c>
       <c r="S11">
-        <v>0.0001970668693529662</v>
+        <v>0.0001620951433394402</v>
       </c>
       <c r="T11">
-        <v>0.0001970668693529662</v>
+        <v>0.0001620951433394402</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>36.47324633333333</v>
+        <v>25.89747433333334</v>
       </c>
       <c r="H12">
-        <v>109.419739</v>
+        <v>77.69242300000001</v>
       </c>
       <c r="I12">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675039</v>
       </c>
       <c r="J12">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675038</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N12">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O12">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P12">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q12">
-        <v>437.3500159490683</v>
+        <v>1215.296199244961</v>
       </c>
       <c r="R12">
-        <v>3936.150143541616</v>
+        <v>10937.66579320465</v>
       </c>
       <c r="S12">
-        <v>0.01456547605010349</v>
+        <v>0.0468868514954053</v>
       </c>
       <c r="T12">
-        <v>0.01456547605010349</v>
+        <v>0.0468868514954053</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>36.47324633333333</v>
+        <v>25.89747433333334</v>
       </c>
       <c r="H13">
-        <v>109.419739</v>
+        <v>77.69242300000001</v>
       </c>
       <c r="I13">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675039</v>
       </c>
       <c r="J13">
-        <v>0.3243489305148017</v>
+        <v>0.2930748622675038</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N13">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O13">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P13">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q13">
-        <v>8432.792529551023</v>
+        <v>5711.392189162306</v>
       </c>
       <c r="R13">
-        <v>75895.13276595922</v>
+        <v>51402.52970246075</v>
       </c>
       <c r="S13">
-        <v>0.2808451655320643</v>
+        <v>0.2203489137641037</v>
       </c>
       <c r="T13">
-        <v>0.2808451655320643</v>
+        <v>0.2203489137641037</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.21819066666667</v>
+        <v>20.774284</v>
       </c>
       <c r="H14">
-        <v>72.654572</v>
+        <v>62.322852</v>
       </c>
       <c r="I14">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="J14">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.66111866666667</v>
+        <v>25.69910333333333</v>
       </c>
       <c r="N14">
-        <v>70.983356</v>
+        <v>77.09730999999999</v>
       </c>
       <c r="O14">
-        <v>0.08861204511346257</v>
+        <v>0.08761243344445813</v>
       </c>
       <c r="P14">
-        <v>0.08861204511346259</v>
+        <v>0.08761243344445814</v>
       </c>
       <c r="Q14">
-        <v>573.0294832559591</v>
+        <v>533.8804711920133</v>
       </c>
       <c r="R14">
-        <v>5157.265349303632</v>
+        <v>4804.924240728119</v>
       </c>
       <c r="S14">
-        <v>0.01908413606949505</v>
+        <v>0.02059742668876016</v>
       </c>
       <c r="T14">
-        <v>0.01908413606949506</v>
+        <v>0.02059742668876016</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.21819066666667</v>
+        <v>20.774284</v>
       </c>
       <c r="H15">
-        <v>72.654572</v>
+        <v>62.322852</v>
       </c>
       <c r="I15">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="J15">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1367,22 +1367,22 @@
         <v>0.486704</v>
       </c>
       <c r="O15">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649811</v>
       </c>
       <c r="P15">
-        <v>0.0006075767508780887</v>
+        <v>0.0005530844306649812</v>
       </c>
       <c r="Q15">
-        <v>3.929030090076445</v>
+        <v>3.370309039978666</v>
       </c>
       <c r="R15">
-        <v>35.361270810688</v>
+        <v>30.332781359808</v>
       </c>
       <c r="S15">
-        <v>0.0001308521586605108</v>
+        <v>0.0001300285309451954</v>
       </c>
       <c r="T15">
-        <v>0.0001308521586605108</v>
+        <v>0.0001300285309451954</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.21819066666667</v>
+        <v>20.774284</v>
       </c>
       <c r="H16">
-        <v>72.654572</v>
+        <v>62.322852</v>
       </c>
       <c r="I16">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="J16">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>11.99098133333333</v>
+        <v>46.92720933333334</v>
       </c>
       <c r="N16">
-        <v>35.972944</v>
+        <v>140.781628</v>
       </c>
       <c r="O16">
-        <v>0.04490681078240457</v>
+        <v>0.1599825079935015</v>
       </c>
       <c r="P16">
-        <v>0.04490681078240458</v>
+        <v>0.1599825079935016</v>
       </c>
       <c r="Q16">
-        <v>290.3998722111075</v>
+        <v>974.8791740181173</v>
       </c>
       <c r="R16">
-        <v>2613.598849899968</v>
+        <v>8773.912566163057</v>
       </c>
       <c r="S16">
-        <v>0.009671458167127596</v>
+        <v>0.03761141941079792</v>
       </c>
       <c r="T16">
-        <v>0.009671458167127596</v>
+        <v>0.03761141941079792</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.21819066666667</v>
+        <v>20.774284</v>
       </c>
       <c r="H17">
-        <v>72.654572</v>
+        <v>62.322852</v>
       </c>
       <c r="I17">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="J17">
-        <v>0.2153672905874018</v>
+        <v>0.2350970733145757</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>231.2048796666667</v>
+        <v>220.538579</v>
       </c>
       <c r="N17">
-        <v>693.614639</v>
+        <v>661.615737</v>
       </c>
       <c r="O17">
-        <v>0.8658735673532547</v>
+        <v>0.7518519741313753</v>
       </c>
       <c r="P17">
-        <v>0.8658735673532548</v>
+        <v>0.7518519741313754</v>
       </c>
       <c r="Q17">
-        <v>5599.363858831057</v>
+        <v>4581.531073102436</v>
       </c>
       <c r="R17">
-        <v>50394.27472947951</v>
+        <v>41233.77965792192</v>
       </c>
       <c r="S17">
-        <v>0.1864808441921187</v>
+        <v>0.1767581986840724</v>
       </c>
       <c r="T17">
-        <v>0.1864808441921187</v>
+        <v>0.1767581986840724</v>
       </c>
     </row>
   </sheetData>
